--- a/handouts/chapter_2_2_handout.xlsx
+++ b/handouts/chapter_2_2_handout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RData\BYUI-Timeseries-Drafts\handouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RussellStuff\Time series personal work\timeseries\handouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74210FCC-C618-4699-A532-D036490BA92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF692A4C-6DD9-496B-AEC0-A746C7ACC7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB73943A-C465-40BE-817C-B9991112161C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CB73943A-C465-40BE-817C-B9991112161C}"/>
   </bookViews>
   <sheets>
     <sheet name="Workbook" sheetId="2" r:id="rId1"/>
@@ -179,7 +179,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +192,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -431,11 +437,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,15 +459,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -484,15 +490,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,9 +526,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,9 +536,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,8 +934,8 @@
       <xdr:rowOff>37973</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="367280" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -974,7 +1023,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1414,8 +1463,8 @@
       <xdr:rowOff>53213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="682174" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -1527,7 +1576,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -1592,8 +1641,8 @@
       <xdr:rowOff>68453</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1316322" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -1691,13 +1740,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
+                          <m:t>)(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
@@ -1759,7 +1802,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -1824,8 +1867,8 @@
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="218201" cy="252826"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1867,6 +1910,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1906,7 +1950,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1970,8 +2014,8 @@
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="318613" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2013,6 +2057,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2051,7 +2096,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2115,8 +2160,8 @@
       <xdr:rowOff>45593</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196079" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2198,7 +2243,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2278,7 +2323,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1895634" y="3985133"/>
+              <a:off x="1927384" y="3988943"/>
               <a:ext cx="367280" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2340,7 +2385,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+2</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -2366,7 +2411,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1895634" y="3985133"/>
+              <a:off x="1927384" y="3988943"/>
               <a:ext cx="367280" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2399,7 +2444,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥_(𝑡+1)</a:t>
+                <a:t>𝑥_(𝑡+2)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -2417,8 +2462,8 @@
       <xdr:rowOff>60833</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="510973" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2524,7 +2569,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2589,8 +2634,8 @@
       <xdr:rowOff>53213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="663515" cy="225446"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2727,7 +2772,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2807,7 +2852,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4158774" y="670433"/>
+              <a:off x="4226084" y="3996563"/>
               <a:ext cx="682174" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2869,7 +2914,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+2</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -2919,7 +2964,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4158774" y="670433"/>
+              <a:off x="4226084" y="3996563"/>
               <a:ext cx="682174" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2952,7 +2997,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥_(𝑡+1)−𝑥 ̅</a:t>
+                <a:t>𝑥_(𝑡+2)−𝑥 ̅</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -2985,7 +3030,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4966494" y="685673"/>
+              <a:off x="5050314" y="4011803"/>
               <a:ext cx="1316322" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3069,13 +3114,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
+                          <m:t>)(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
@@ -3095,7 +3134,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+2</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -3151,7 +3190,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4966494" y="685673"/>
+              <a:off x="5050314" y="4011803"/>
               <a:ext cx="1316322" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3184,7 +3223,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>〖(𝑥−𝑥 ̅)(𝑥〗_(𝑡+1)−𝑥 ̅)</a:t>
+                <a:t>〖(𝑥−𝑥 ̅)(𝑥〗_(𝑡+2)−𝑥 ̅)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -3202,8 +3241,8 @@
       <xdr:rowOff>45593</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196079" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -3285,7 +3324,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -3365,7 +3404,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1903254" y="6888353"/>
+              <a:off x="1935004" y="6897243"/>
               <a:ext cx="367280" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3427,7 +3466,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+3</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -3453,7 +3492,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1903254" y="6888353"/>
+              <a:off x="1935004" y="6897243"/>
               <a:ext cx="367280" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3486,7 +3525,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥_(𝑡+1)</a:t>
+                <a:t>𝑥_(𝑡+3)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -3504,8 +3543,8 @@
       <xdr:rowOff>60833</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="510973" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -3611,7 +3650,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -3676,8 +3715,8 @@
       <xdr:rowOff>53213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="663515" cy="225446"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -3814,7 +3853,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -3894,7 +3933,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4158774" y="4122293"/>
+              <a:off x="4226084" y="6904863"/>
               <a:ext cx="682174" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3956,7 +3995,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+3</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -4006,7 +4045,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4158774" y="4122293"/>
+              <a:off x="4226084" y="6904863"/>
               <a:ext cx="682174" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4039,7 +4078,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥_(𝑡+1)−𝑥 ̅</a:t>
+                <a:t>𝑥_(𝑡+3)−𝑥 ̅</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -4072,7 +4111,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4966494" y="4137533"/>
+              <a:off x="5050314" y="6920103"/>
               <a:ext cx="1316322" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4156,13 +4195,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
+                          <m:t>)(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
@@ -4182,7 +4215,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+3</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -4238,7 +4271,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4966494" y="4137533"/>
+              <a:off x="5050314" y="6920103"/>
               <a:ext cx="1316322" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4271,7 +4304,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>〖(𝑥−𝑥 ̅)(𝑥〗_(𝑡+1)−𝑥 ̅)</a:t>
+                <a:t>〖(𝑥−𝑥 ̅)(𝑥〗_(𝑡+3)−𝑥 ̅)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -4289,8 +4322,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="222946" cy="252826"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -4332,6 +4365,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4371,7 +4405,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -4435,8 +4469,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="208583" cy="252826"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -4478,6 +4512,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4517,7 +4552,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -4581,8 +4616,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="324961" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -4624,6 +4659,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4669,7 +4705,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -4733,8 +4769,8 @@
       <xdr:rowOff>339090</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314189" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -4776,6 +4812,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4821,7 +4858,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -4885,8 +4922,8 @@
       <xdr:rowOff>45593</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196079" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36">
@@ -4968,7 +5005,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36">
@@ -5048,7 +5085,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1903254" y="6888353"/>
+              <a:off x="1935004" y="10192893"/>
               <a:ext cx="367280" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5110,7 +5147,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+4</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -5136,7 +5173,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1903254" y="6888353"/>
+              <a:off x="1935004" y="10192893"/>
               <a:ext cx="367280" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5169,7 +5206,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥_(𝑡+1)</a:t>
+                <a:t>𝑥_(𝑡+4)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -5187,8 +5224,8 @@
       <xdr:rowOff>60833</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="510973" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -5294,7 +5331,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -5359,8 +5396,8 @@
       <xdr:rowOff>53213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="663515" cy="225446"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -5497,7 +5534,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -5577,7 +5614,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4158774" y="6895973"/>
+              <a:off x="4226084" y="10200513"/>
               <a:ext cx="682174" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5639,7 +5676,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+4</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -5689,7 +5726,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4158774" y="6895973"/>
+              <a:off x="4226084" y="10200513"/>
               <a:ext cx="682174" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5722,7 +5759,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥_(𝑡+1)−𝑥 ̅</a:t>
+                <a:t>𝑥_(𝑡+4)−𝑥 ̅</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -5755,7 +5792,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4966494" y="6911213"/>
+              <a:off x="5050314" y="10215753"/>
               <a:ext cx="1316322" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5839,13 +5876,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
+                          <m:t>)(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
@@ -5865,7 +5896,7 @@
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+1</m:t>
+                          <m:t>+4</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -5921,7 +5952,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4966494" y="6911213"/>
+              <a:off x="5050314" y="10215753"/>
               <a:ext cx="1316322" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5954,7 +5985,7 @@
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>〖(𝑥−𝑥 ̅)(𝑥〗_(𝑡+1)−𝑥 ̅)</a:t>
+                <a:t>〖(𝑥−𝑥 ̅)(𝑥〗_(𝑡+4)−𝑥 ̅)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -5972,8 +6003,8 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167225" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -6015,6 +6046,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6054,7 +6086,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -6118,8 +6150,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="149849" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -6161,6 +6193,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6200,7 +6233,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -6264,8 +6297,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="324961" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -6307,6 +6340,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6352,7 +6386,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -6416,8 +6450,8 @@
       <xdr:rowOff>339090</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314189" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45">
@@ -6459,6 +6493,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6504,7 +6539,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45">
@@ -6568,8 +6603,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="324961" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -6611,6 +6646,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6656,7 +6692,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -6720,8 +6756,8 @@
       <xdr:rowOff>339090</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="307585" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -6763,6 +6799,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6808,7 +6845,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -7184,36 +7221,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFF2E6-1E13-48EF-9BE3-D6C90C46BEC8}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7225,1012 +7262,1016 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="26">
+      <c r="H2" s="20">
         <f>AVERAGE(B3:B12)</f>
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>4.2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>-0.3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>0.09</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>-0.5</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="16">
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>4.2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>4.2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>0.25</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>-0.5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="16">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>4.2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>0.25</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>-0.7</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="16">
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>-0.7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>0.49</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>-0.3</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="16">
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>4.7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>-0.3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>0.09</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>4.7</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>0.2</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>5.3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>0.2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>0.04</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>0.6</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>5.3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>5.4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>0.6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>0.36</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>0.7</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="16">
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>5.4</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>5.5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>0.7</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>0.49</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>0.8</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="16">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>5.5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>0.8</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>0.64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="18">
         <v>47</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="18">
         <v>42.6</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="18">
         <v>2.7</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <v>0.3</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="19">
         <v>2.06</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="24">
         <v>1</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="25">
         <v>4.2</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="25">
         <v>-0.3</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="25">
         <v>0.09</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="25">
         <v>-0.5</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="26">
         <v>0.15</v>
       </c>
+      <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>4.2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <v>0.25</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <v>-0.7</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="16">
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="15">
         <v>3</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>4.2</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="39">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="39">
         <v>-0.5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="39">
         <v>0.25</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="39">
         <v>-0.3</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="40">
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15">
         <v>4</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>4</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="15">
         <v>5</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="15">
         <v>6</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>4.7</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="15">
         <v>7</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>5.4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>0.2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>0.04</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <v>0.7</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="15">
         <v>8</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>5.3</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>0.6</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>0.36</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <v>0.8</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="16">
         <v>0.48</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="15">
         <v>9</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>5.4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>0.7</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>0.49</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="15">
         <v>10</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>5.5</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="39">
         <v>0.8</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="39">
         <v>0.64</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="18">
         <v>47</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32">
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
         <v>1</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>4</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>-0.3</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="4">
         <v>0.09</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
         <v>-0.7</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="16">
         <v>0.21</v>
       </c>
       <c r="H33">
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
         <v>2</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <v>4.2</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="4">
         <v>0.25</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="4">
         <v>-0.3</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="16">
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
         <v>3</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="7">
         <v>4.2</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <v>4.7</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="4">
         <v>0.25</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
         <v>4</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>4</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>-0.7</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="4">
         <v>0.49</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="4">
         <v>0.2</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="16">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>5.3</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <v>-0.3</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="4">
         <v>0.09</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="4">
         <v>0.6</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="16">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
         <v>6</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>4.7</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="13">
         <v>5.4</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="4">
         <v>0</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="4">
         <v>0.7</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
         <v>7</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="49">
         <v>5.5</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>0.2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="4">
         <v>0.04</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="39">
         <v>0.8</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="40">
         <v>0.16</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
         <v>8</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="12">
         <v>5.3</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="4">
         <v>0.6</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="4">
         <v>0.36</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
         <v>9</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="13">
         <v>5.4</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>0.7</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>0.49</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
         <v>10</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="5">
         <v>5.5</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>0.8</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="4">
         <v>0.64</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="14">
         <v>47</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="14">
         <v>34.200000000000003</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="14">
         <v>0</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="14">
         <v>2.7</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <v>1.3</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="30">
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+    <row r="45" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
     </row>
-    <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="I48" s="50"/>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
         <v>1</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="22"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="I49" s="50"/>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
         <v>2</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="6">
         <v>4.2</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="7">
         <v>4.2</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
         <v>4</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="8">
         <v>4</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
         <v>5</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
         <v>6</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="10">
         <v>4.7</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
         <v>7</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
         <v>8</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="12">
         <v>5.3</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
         <v>9</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="13">
         <v>5.4</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
         <v>10</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="5">
         <v>5.5</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="22"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="14">
         <v>47</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="37"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8256,6 +8297,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070F75838E79B0E48B83E8E3F5479A3A2" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2b0c304636f8f537543cd13f583db9d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ca1cba85-b018-40b2-9d9a-243cd5b6fae5" xmlns:ns4="f1fb8133-dfcb-4ab3-83e1-bcafde3f766a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f089f22c5ce4e61126931f7622145b2" ns3:_="" ns4:_="">
     <xsd:import namespace="ca1cba85-b018-40b2-9d9a-243cd5b6fae5"/>
@@ -8450,15 +8500,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5E1B631-90B0-4D19-A35E-F8DC8BE167A4}">
   <ds:schemaRefs>
@@ -8477,6 +8518,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96E0334-A0AA-41B5-AE21-CAD1C9D10746}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDC771-C014-4A48-9FCA-802C556EA1D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8493,12 +8542,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96E0334-A0AA-41B5-AE21-CAD1C9D10746}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>